--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value572.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value572.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.046457581027431</v>
+        <v>1.150782346725464</v>
       </c>
       <c r="B1">
-        <v>2.492750160086546</v>
+        <v>2.253428936004639</v>
       </c>
       <c r="C1">
-        <v>2.686009072274473</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.886674351034062</v>
+        <v>2.145925998687744</v>
       </c>
       <c r="E1">
-        <v>0.9688585613242272</v>
+        <v>1.063439130783081</v>
       </c>
     </row>
   </sheetData>
